--- a/Excel/oct27.xlsx
+++ b/Excel/oct27.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\July23_DSAIML_Gen35_1\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB9410B7-F15F-4047-BD7A-83E3345CCE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5247EC8-8001-44CE-BFE3-0A9C44AA71EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1CECCEFE-192E-4304-A0FB-E9308580EFBD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1CECCEFE-192E-4304-A0FB-E9308580EFBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Internal Marks" sheetId="2" r:id="rId2"/>
+    <sheet name="nov3" sheetId="3" r:id="rId2"/>
+    <sheet name="Internal Marks" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>Serial No</t>
   </si>
@@ -155,6 +156,15 @@
   </si>
   <si>
     <t>Next Class: More about fixing the range, IPL Dataset</t>
+  </si>
+  <si>
+    <t>More About Fixed Ranges:</t>
+  </si>
+  <si>
+    <t>Sum 1</t>
+  </si>
+  <si>
+    <t>b4+d3</t>
   </si>
 </sst>
 </file>
@@ -246,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -257,16 +267,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3B8610-716E-492D-9DAD-4F5A75A64D0F}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,25 +610,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="22.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
@@ -636,48 +645,47 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8">
+      <c r="C4" s="5"/>
+      <c r="D4" s="6">
         <v>45226</v>
       </c>
-      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8">
+      <c r="C5" s="5"/>
+      <c r="D5" s="6">
         <v>45227</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8">
+      <c r="C6" s="5"/>
+      <c r="D6" s="6">
         <v>45228</v>
       </c>
       <c r="E6" t="s">
@@ -688,10 +696,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="8">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="6">
         <v>45229</v>
       </c>
       <c r="E7" t="s">
@@ -702,12 +710,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8">
+      <c r="C8" s="5"/>
+      <c r="D8" s="6">
         <v>45230</v>
       </c>
       <c r="E8" t="s">
@@ -718,12 +726,12 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8">
+      <c r="C9" s="5"/>
+      <c r="D9" s="6">
         <v>45231</v>
       </c>
       <c r="E9" t="s">
@@ -734,12 +742,12 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8">
+      <c r="C10" s="5"/>
+      <c r="D10" s="6">
         <v>45232</v>
       </c>
       <c r="E10" t="s">
@@ -750,12 +758,12 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8">
+      <c r="C11" s="5"/>
+      <c r="D11" s="6">
         <v>45233</v>
       </c>
       <c r="E11" t="s">
@@ -772,7 +780,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E12" t="s">
@@ -780,7 +788,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E13" t="s">
@@ -793,7 +801,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+      <c r="A15" s="7">
         <v>45226</v>
       </c>
       <c r="B15">
@@ -1143,6 +1151,99 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB10FFA3-1685-4E84-9EFD-32D3DDA89795}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2">
+        <f>$B3+C$3</f>
+        <v>40</v>
+      </c>
+      <c r="I2">
+        <f>$B3+D$3</f>
+        <v>80</v>
+      </c>
+      <c r="K2">
+        <f>B3+C3</f>
+        <v>40</v>
+      </c>
+      <c r="L2">
+        <f>C3+D3</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>70</v>
+      </c>
+      <c r="H3">
+        <f>$B4+C$3</f>
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <f>$B4+D$3</f>
+        <v>90</v>
+      </c>
+      <c r="K3">
+        <f>B4+C4</f>
+        <v>60</v>
+      </c>
+      <c r="L3">
+        <f>C4+D4</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>80</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
+      <c r="D5">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6D6A11-3D66-4F2E-A887-5913528826B0}">
   <dimension ref="A1:A11"/>
   <sheetViews>
